--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.10353721527798</v>
+        <v>14.513629</v>
       </c>
       <c r="H2">
-        <v>6.10353721527798</v>
+        <v>43.540887</v>
       </c>
       <c r="I2">
-        <v>0.002622480213459095</v>
+        <v>0.005850682752110994</v>
       </c>
       <c r="J2">
-        <v>0.002622480213459095</v>
+        <v>0.005913450266836087</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.21251354186806</v>
+        <v>2.824799333333333</v>
       </c>
       <c r="N2">
-        <v>2.21251354186806</v>
+        <v>8.474398000000001</v>
       </c>
       <c r="O2">
-        <v>0.03027400203974254</v>
+        <v>0.03547266316613188</v>
       </c>
       <c r="P2">
-        <v>0.03027400203974254</v>
+        <v>0.04015097612037852</v>
       </c>
       <c r="Q2">
-        <v>13.5041587420982</v>
+        <v>40.99808952344733</v>
       </c>
       <c r="R2">
-        <v>13.5041587420982</v>
+        <v>368.982805711026</v>
       </c>
       <c r="S2">
-        <v>7.93929713314451E-05</v>
+        <v>0.0002075392985575307</v>
       </c>
       <c r="T2">
-        <v>7.93929713314451E-05</v>
+        <v>0.0002374308004527817</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.10353721527798</v>
+        <v>14.513629</v>
       </c>
       <c r="H3">
-        <v>6.10353721527798</v>
+        <v>43.540887</v>
       </c>
       <c r="I3">
-        <v>0.002622480213459095</v>
+        <v>0.005850682752110994</v>
       </c>
       <c r="J3">
-        <v>0.002622480213459095</v>
+        <v>0.005913450266836087</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.4528243402408</v>
+        <v>48.60541466666666</v>
       </c>
       <c r="N3">
-        <v>44.4528243402408</v>
+        <v>145.816244</v>
       </c>
       <c r="O3">
-        <v>0.6082515967845856</v>
+        <v>0.6103667195666876</v>
       </c>
       <c r="P3">
-        <v>0.6082515967845856</v>
+        <v>0.6908649476702989</v>
       </c>
       <c r="Q3">
-        <v>271.3194676848746</v>
+        <v>705.4409558631586</v>
       </c>
       <c r="R3">
-        <v>271.3194676848746</v>
+        <v>6348.968602768427</v>
       </c>
       <c r="S3">
-        <v>0.001595127777372476</v>
+        <v>0.003571062038631387</v>
       </c>
       <c r="T3">
-        <v>0.001595127777372476</v>
+        <v>0.004085395509148628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.10353721527798</v>
+        <v>14.513629</v>
       </c>
       <c r="H4">
-        <v>6.10353721527798</v>
+        <v>43.540887</v>
       </c>
       <c r="I4">
-        <v>0.002622480213459095</v>
+        <v>0.005850682752110994</v>
       </c>
       <c r="J4">
-        <v>0.002622480213459095</v>
+        <v>0.005913450266836087</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>26.4176175515189</v>
+        <v>0.2081363333333333</v>
       </c>
       <c r="N4">
-        <v>26.4176175515189</v>
+        <v>0.624409</v>
       </c>
       <c r="O4">
-        <v>0.3614744011756717</v>
+        <v>0.002613690097503238</v>
       </c>
       <c r="P4">
-        <v>0.3614744011756717</v>
+        <v>0.002958396672937644</v>
       </c>
       <c r="Q4">
-        <v>161.2409118646763</v>
+        <v>3.020813523420333</v>
       </c>
       <c r="R4">
-        <v>161.2409118646763</v>
+        <v>27.187321710783</v>
       </c>
       <c r="S4">
-        <v>0.0009479594647551742</v>
+        <v>1.529187157282549E-05</v>
       </c>
       <c r="T4">
-        <v>0.0009479594647551742</v>
+        <v>1.749433159499011E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2242.34772846822</v>
+        <v>14.513629</v>
       </c>
       <c r="H5">
-        <v>2242.34772846822</v>
+        <v>43.540887</v>
       </c>
       <c r="I5">
-        <v>0.9634597680314189</v>
+        <v>0.005850682752110994</v>
       </c>
       <c r="J5">
-        <v>0.9634597680314189</v>
+        <v>0.005913450266836087</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.21251354186806</v>
+        <v>0.158694</v>
       </c>
       <c r="N5">
-        <v>2.21251354186806</v>
+        <v>0.476082</v>
       </c>
       <c r="O5">
-        <v>0.03027400203974254</v>
+        <v>0.001992813699033064</v>
       </c>
       <c r="P5">
-        <v>0.03027400203974254</v>
+        <v>0.002255635977132776</v>
       </c>
       <c r="Q5">
-        <v>4961.22471481302</v>
+        <v>2.303225840526</v>
       </c>
       <c r="R5">
-        <v>4961.22471481302</v>
+        <v>20.729032564734</v>
       </c>
       <c r="S5">
-        <v>0.02916778298259304</v>
+        <v>1.165932073710326E-05</v>
       </c>
       <c r="T5">
-        <v>0.02916778298259304</v>
+        <v>1.333859117086089E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2242.34772846822</v>
+        <v>14.513629</v>
       </c>
       <c r="H6">
-        <v>2242.34772846822</v>
+        <v>43.540887</v>
       </c>
       <c r="I6">
-        <v>0.9634597680314189</v>
+        <v>0.005850682752110994</v>
       </c>
       <c r="J6">
-        <v>0.9634597680314189</v>
+        <v>0.005913450266836087</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.4528243402408</v>
+        <v>27.8360895</v>
       </c>
       <c r="N6">
-        <v>44.4528243402408</v>
+        <v>55.672179</v>
       </c>
       <c r="O6">
-        <v>0.6082515967845856</v>
+        <v>0.3495541134706443</v>
       </c>
       <c r="P6">
-        <v>0.6082515967845856</v>
+        <v>0.263770043559252</v>
       </c>
       <c r="Q6">
-        <v>99678.68968333576</v>
+        <v>404.0026758137955</v>
       </c>
       <c r="R6">
-        <v>99678.68968333576</v>
+        <v>2424.016054882773</v>
       </c>
       <c r="S6">
-        <v>0.586025942342817</v>
+        <v>0.002045130222612148</v>
       </c>
       <c r="T6">
-        <v>0.586025942342817</v>
+        <v>0.001559791034468825</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,433 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2242.34772846822</v>
+        <v>2384.33138</v>
       </c>
       <c r="H7">
-        <v>2242.34772846822</v>
+        <v>7152.994140000001</v>
       </c>
       <c r="I7">
-        <v>0.9634597680314189</v>
+        <v>0.9611632266666733</v>
       </c>
       <c r="J7">
-        <v>0.9634597680314189</v>
+        <v>0.9714748141410159</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.4176175515189</v>
+        <v>2.824799333333333</v>
       </c>
       <c r="N7">
-        <v>26.4176175515189</v>
+        <v>8.474398000000001</v>
       </c>
       <c r="O7">
-        <v>0.3614744011756717</v>
+        <v>0.03547266316613188</v>
       </c>
       <c r="P7">
-        <v>0.3614744011756717</v>
+        <v>0.04015097612037852</v>
       </c>
       <c r="Q7">
-        <v>59237.48470819058</v>
+        <v>6735.257692669747</v>
       </c>
       <c r="R7">
-        <v>59237.48470819058</v>
+        <v>60617.31923402773</v>
       </c>
       <c r="S7">
-        <v>0.3482660427060087</v>
+        <v>0.03409501938721937</v>
       </c>
       <c r="T7">
-        <v>0.3482660427060087</v>
+        <v>0.03900566206412509</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.470619117884544</v>
+        <v>2384.33138</v>
       </c>
       <c r="H8">
-        <v>0.470619117884544</v>
+        <v>7152.994140000001</v>
       </c>
       <c r="I8">
-        <v>0.0002022088636796458</v>
+        <v>0.9611632266666733</v>
       </c>
       <c r="J8">
-        <v>0.0002022088636796458</v>
+        <v>0.9714748141410159</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.21251354186806</v>
+        <v>48.60541466666666</v>
       </c>
       <c r="N8">
-        <v>2.21251354186806</v>
+        <v>145.816244</v>
       </c>
       <c r="O8">
-        <v>0.03027400203974254</v>
+        <v>0.6103667195666876</v>
       </c>
       <c r="P8">
-        <v>0.03027400203974254</v>
+        <v>0.6908649476702989</v>
       </c>
       <c r="Q8">
-        <v>1.041251171381555</v>
+        <v>115891.4154276456</v>
       </c>
       <c r="R8">
-        <v>1.041251171381555</v>
+        <v>1043022.73884881</v>
       </c>
       <c r="S8">
-        <v>6.121671551491619E-06</v>
+        <v>0.58666204562867</v>
       </c>
       <c r="T8">
-        <v>6.121671551491619E-06</v>
+        <v>0.6711578966345463</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.470619117884544</v>
+        <v>2384.33138</v>
       </c>
       <c r="H9">
-        <v>0.470619117884544</v>
+        <v>7152.994140000001</v>
       </c>
       <c r="I9">
-        <v>0.0002022088636796458</v>
+        <v>0.9611632266666733</v>
       </c>
       <c r="J9">
-        <v>0.0002022088636796458</v>
+        <v>0.9714748141410159</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>44.4528243402408</v>
+        <v>0.2081363333333333</v>
       </c>
       <c r="N9">
-        <v>44.4528243402408</v>
+        <v>0.624409</v>
       </c>
       <c r="O9">
-        <v>0.6082515967845856</v>
+        <v>0.002613690097503238</v>
       </c>
       <c r="P9">
-        <v>0.6082515967845856</v>
+        <v>0.002958396672937644</v>
       </c>
       <c r="Q9">
-        <v>20.92034897848071</v>
+        <v>496.2659908848067</v>
       </c>
       <c r="R9">
-        <v>20.92034897848071</v>
+        <v>4466.393917963261</v>
       </c>
       <c r="S9">
-        <v>0.0001229938642171412</v>
+        <v>0.002512182807622944</v>
       </c>
       <c r="T9">
-        <v>0.0001229938642171412</v>
+        <v>0.002874007857997498</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.470619117884544</v>
+        <v>2384.33138</v>
       </c>
       <c r="H10">
-        <v>0.470619117884544</v>
+        <v>7152.994140000001</v>
       </c>
       <c r="I10">
-        <v>0.0002022088636796458</v>
+        <v>0.9611632266666733</v>
       </c>
       <c r="J10">
-        <v>0.0002022088636796458</v>
+        <v>0.9714748141410159</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>26.4176175515189</v>
+        <v>0.158694</v>
       </c>
       <c r="N10">
-        <v>26.4176175515189</v>
+        <v>0.476082</v>
       </c>
       <c r="O10">
-        <v>0.3614744011756717</v>
+        <v>0.001992813699033064</v>
       </c>
       <c r="P10">
-        <v>0.3614744011756717</v>
+        <v>0.002255635977132776</v>
       </c>
       <c r="Q10">
-        <v>12.43263586870707</v>
+        <v>378.37908401772</v>
       </c>
       <c r="R10">
-        <v>12.43263586870707</v>
+        <v>3405.41175615948</v>
       </c>
       <c r="S10">
-        <v>7.309332791101301E-05</v>
+        <v>0.001915419245108169</v>
       </c>
       <c r="T10">
-        <v>7.309332791101301E-05</v>
+        <v>0.002191293541654853</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>78.4692558270205</v>
+        <v>2384.33138</v>
       </c>
       <c r="H11">
-        <v>78.4692558270205</v>
+        <v>7152.994140000001</v>
       </c>
       <c r="I11">
-        <v>0.03371554289144264</v>
+        <v>0.9611632266666733</v>
       </c>
       <c r="J11">
-        <v>0.03371554289144264</v>
+        <v>0.9714748141410159</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.21251354186806</v>
+        <v>27.8360895</v>
       </c>
       <c r="N11">
-        <v>2.21251354186806</v>
+        <v>55.672179</v>
       </c>
       <c r="O11">
-        <v>0.03027400203974254</v>
+        <v>0.3495541134706443</v>
       </c>
       <c r="P11">
-        <v>0.03027400203974254</v>
+        <v>0.263770043559252</v>
       </c>
       <c r="Q11">
-        <v>173.6142911375921</v>
+        <v>66370.46169133851</v>
       </c>
       <c r="R11">
-        <v>173.6142911375921</v>
+        <v>398222.7701480311</v>
       </c>
       <c r="S11">
-        <v>0.001020704414266561</v>
+        <v>0.335978559598053</v>
       </c>
       <c r="T11">
-        <v>0.001020704414266561</v>
+        <v>0.2562459540426921</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>78.4692558270205</v>
+        <v>1.394343666666667</v>
       </c>
       <c r="H12">
-        <v>78.4692558270205</v>
+        <v>4.183031</v>
       </c>
       <c r="I12">
-        <v>0.03371554289144264</v>
+        <v>0.0005620828836869033</v>
       </c>
       <c r="J12">
-        <v>0.03371554289144264</v>
+        <v>0.0005681130424176619</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.4528243402408</v>
+        <v>2.824799333333333</v>
       </c>
       <c r="N12">
-        <v>44.4528243402408</v>
+        <v>8.474398000000001</v>
       </c>
       <c r="O12">
-        <v>0.6082515967845856</v>
+        <v>0.03547266316613188</v>
       </c>
       <c r="P12">
-        <v>0.6082515967845856</v>
+        <v>0.04015097612037852</v>
       </c>
       <c r="Q12">
-        <v>3488.18004538796</v>
+        <v>3.938741060037556</v>
       </c>
       <c r="R12">
-        <v>3488.18004538796</v>
+        <v>35.448669540338</v>
       </c>
       <c r="S12">
-        <v>0.02050753280017917</v>
+        <v>1.99385768044736E-05</v>
       </c>
       <c r="T12">
-        <v>0.02050753280017917</v>
+        <v>2.281029319978713E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.394343666666667</v>
+      </c>
+      <c r="H13">
+        <v>4.183031</v>
+      </c>
+      <c r="I13">
+        <v>0.0005620828836869033</v>
+      </c>
+      <c r="J13">
+        <v>0.0005681130424176619</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>48.60541466666666</v>
+      </c>
+      <c r="N13">
+        <v>145.816244</v>
+      </c>
+      <c r="O13">
+        <v>0.6103667195666876</v>
+      </c>
+      <c r="P13">
+        <v>0.6908649476702989</v>
+      </c>
+      <c r="Q13">
+        <v>67.77265210617377</v>
+      </c>
+      <c r="R13">
+        <v>609.9538689555638</v>
+      </c>
+      <c r="S13">
+        <v>0.0003430766858405592</v>
+      </c>
+      <c r="T13">
+        <v>0.0003924893873206923</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.394343666666667</v>
+      </c>
+      <c r="H14">
+        <v>4.183031</v>
+      </c>
+      <c r="I14">
+        <v>0.0005620828836869033</v>
+      </c>
+      <c r="J14">
+        <v>0.0005681130424176619</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.2081363333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.624409</v>
+      </c>
+      <c r="O14">
+        <v>0.002613690097503238</v>
+      </c>
+      <c r="P14">
+        <v>0.002958396672937644</v>
+      </c>
+      <c r="Q14">
+        <v>0.2902135781865556</v>
+      </c>
+      <c r="R14">
+        <v>2.611922203679</v>
+      </c>
+      <c r="S14">
+        <v>1.469110467068523E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.680703734540894E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.394343666666667</v>
+      </c>
+      <c r="H15">
+        <v>4.183031</v>
+      </c>
+      <c r="I15">
+        <v>0.0005620828836869033</v>
+      </c>
+      <c r="J15">
+        <v>0.0005681130424176619</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.158694</v>
+      </c>
+      <c r="N15">
+        <v>0.476082</v>
+      </c>
+      <c r="O15">
+        <v>0.001992813699033064</v>
+      </c>
+      <c r="P15">
+        <v>0.002255635977132776</v>
+      </c>
+      <c r="Q15">
+        <v>0.221273973838</v>
+      </c>
+      <c r="R15">
+        <v>1.991465764542</v>
+      </c>
+      <c r="S15">
+        <v>1.120126470603269E-06</v>
+      </c>
+      <c r="T15">
+        <v>1.281456217555637E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.394343666666667</v>
+      </c>
+      <c r="H16">
+        <v>4.183031</v>
+      </c>
+      <c r="I16">
+        <v>0.0005620828836869033</v>
+      </c>
+      <c r="J16">
+        <v>0.0005681130424176619</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>27.8360895</v>
+      </c>
+      <c r="N16">
+        <v>55.672179</v>
+      </c>
+      <c r="O16">
+        <v>0.3495541134706443</v>
+      </c>
+      <c r="P16">
+        <v>0.263770043559252</v>
+      </c>
+      <c r="Q16">
+        <v>38.8130750990915</v>
+      </c>
+      <c r="R16">
+        <v>232.878450594549</v>
+      </c>
+      <c r="S16">
+        <v>0.0001964783841041987</v>
+      </c>
+      <c r="T16">
+        <v>0.0001498512019450859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>78.4692558270205</v>
-      </c>
-      <c r="H13">
-        <v>78.4692558270205</v>
-      </c>
-      <c r="I13">
-        <v>0.03371554289144264</v>
-      </c>
-      <c r="J13">
-        <v>0.03371554289144264</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>26.4176175515189</v>
-      </c>
-      <c r="N13">
-        <v>26.4176175515189</v>
-      </c>
-      <c r="O13">
-        <v>0.3614744011756717</v>
-      </c>
-      <c r="P13">
-        <v>0.3614744011756717</v>
-      </c>
-      <c r="Q13">
-        <v>2072.970789990524</v>
-      </c>
-      <c r="R13">
-        <v>2072.970789990524</v>
-      </c>
-      <c r="S13">
-        <v>0.0121873056769969</v>
-      </c>
-      <c r="T13">
-        <v>0.0121873056769969</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.441060333333334</v>
+      </c>
+      <c r="H17">
+        <v>4.323181000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.0005809151410019268</v>
+      </c>
+      <c r="J17">
+        <v>0.0005871473366638283</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.824799333333333</v>
+      </c>
+      <c r="N17">
+        <v>8.474398000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.03547266316613188</v>
+      </c>
+      <c r="P17">
+        <v>0.04015097612037852</v>
+      </c>
+      <c r="Q17">
+        <v>4.070706268893112</v>
+      </c>
+      <c r="R17">
+        <v>36.63635642003801</v>
+      </c>
+      <c r="S17">
+        <v>2.060660712486736E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.357453869353322E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.441060333333334</v>
+      </c>
+      <c r="H18">
+        <v>4.323181000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.0005809151410019268</v>
+      </c>
+      <c r="J18">
+        <v>0.0005871473366638283</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>48.60541466666666</v>
+      </c>
+      <c r="N18">
+        <v>145.816244</v>
+      </c>
+      <c r="O18">
+        <v>0.6103667195666876</v>
+      </c>
+      <c r="P18">
+        <v>0.6908649476702989</v>
+      </c>
+      <c r="Q18">
+        <v>70.04333506135156</v>
+      </c>
+      <c r="R18">
+        <v>630.3900155521641</v>
+      </c>
+      <c r="S18">
+        <v>0.0003545712689599659</v>
+      </c>
+      <c r="T18">
+        <v>0.0004056395140190111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.441060333333334</v>
+      </c>
+      <c r="H19">
+        <v>4.323181000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.0005809151410019268</v>
+      </c>
+      <c r="J19">
+        <v>0.0005871473366638283</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.2081363333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.624409</v>
+      </c>
+      <c r="O19">
+        <v>0.002613690097503238</v>
+      </c>
+      <c r="P19">
+        <v>0.002958396672937644</v>
+      </c>
+      <c r="Q19">
+        <v>0.2999370138921112</v>
+      </c>
+      <c r="R19">
+        <v>2.699433125029</v>
+      </c>
+      <c r="S19">
+        <v>1.518332151526433E-06</v>
+      </c>
+      <c r="T19">
+        <v>1.737014727310469E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.441060333333334</v>
+      </c>
+      <c r="H20">
+        <v>4.323181000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.0005809151410019268</v>
+      </c>
+      <c r="J20">
+        <v>0.0005871473366638283</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.158694</v>
+      </c>
+      <c r="N20">
+        <v>0.476082</v>
+      </c>
+      <c r="O20">
+        <v>0.001992813699033064</v>
+      </c>
+      <c r="P20">
+        <v>0.002255635977132776</v>
+      </c>
+      <c r="Q20">
+        <v>0.228687628538</v>
+      </c>
+      <c r="R20">
+        <v>2.058188656842</v>
+      </c>
+      <c r="S20">
+        <v>1.157655650964364E-06</v>
+      </c>
+      <c r="T20">
+        <v>1.324390656456622E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.441060333333334</v>
+      </c>
+      <c r="H21">
+        <v>4.323181000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.0005809151410019268</v>
+      </c>
+      <c r="J21">
+        <v>0.0005871473366638283</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>27.8360895</v>
+      </c>
+      <c r="N21">
+        <v>55.672179</v>
+      </c>
+      <c r="O21">
+        <v>0.3495541134706443</v>
+      </c>
+      <c r="P21">
+        <v>0.263770043559252</v>
+      </c>
+      <c r="Q21">
+        <v>40.11348441356651</v>
+      </c>
+      <c r="R21">
+        <v>240.680906481399</v>
+      </c>
+      <c r="S21">
+        <v>0.0002030612771146029</v>
+      </c>
+      <c r="T21">
+        <v>0.0001548718785675168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>78.9922905</v>
+      </c>
+      <c r="H22">
+        <v>157.984581</v>
+      </c>
+      <c r="I22">
+        <v>0.03184309255652677</v>
+      </c>
+      <c r="J22">
+        <v>0.02145647521306668</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.824799333333333</v>
+      </c>
+      <c r="N22">
+        <v>8.474398000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.03547266316613188</v>
+      </c>
+      <c r="P22">
+        <v>0.04015097612037852</v>
+      </c>
+      <c r="Q22">
+        <v>223.137369542873</v>
+      </c>
+      <c r="R22">
+        <v>1338.824217257238</v>
+      </c>
+      <c r="S22">
+        <v>0.001129559296425635</v>
+      </c>
+      <c r="T22">
+        <v>0.0008614984239073341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>78.9922905</v>
+      </c>
+      <c r="H23">
+        <v>157.984581</v>
+      </c>
+      <c r="I23">
+        <v>0.03184309255652677</v>
+      </c>
+      <c r="J23">
+        <v>0.02145647521306668</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>48.60541466666666</v>
+      </c>
+      <c r="N23">
+        <v>145.816244</v>
+      </c>
+      <c r="O23">
+        <v>0.6103667195666876</v>
+      </c>
+      <c r="P23">
+        <v>0.6908649476702989</v>
+      </c>
+      <c r="Q23">
+        <v>3839.453035222293</v>
+      </c>
+      <c r="R23">
+        <v>23036.71821133376</v>
+      </c>
+      <c r="S23">
+        <v>0.01943596394458565</v>
+      </c>
+      <c r="T23">
+        <v>0.01482352662526438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>78.9922905</v>
+      </c>
+      <c r="H24">
+        <v>157.984581</v>
+      </c>
+      <c r="I24">
+        <v>0.03184309255652677</v>
+      </c>
+      <c r="J24">
+        <v>0.02145647521306668</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.2081363333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.624409</v>
+      </c>
+      <c r="O24">
+        <v>0.002613690097503238</v>
+      </c>
+      <c r="P24">
+        <v>0.002958396672937644</v>
+      </c>
+      <c r="Q24">
+        <v>16.4411657062715</v>
+      </c>
+      <c r="R24">
+        <v>98.64699423762899</v>
+      </c>
+      <c r="S24">
+        <v>8.322797568887307E-05</v>
+      </c>
+      <c r="T24">
+        <v>6.347676488330551E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>78.9922905</v>
+      </c>
+      <c r="H25">
+        <v>157.984581</v>
+      </c>
+      <c r="I25">
+        <v>0.03184309255652677</v>
+      </c>
+      <c r="J25">
+        <v>0.02145647521306668</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.158694</v>
+      </c>
+      <c r="N25">
+        <v>0.476082</v>
+      </c>
+      <c r="O25">
+        <v>0.001992813699033064</v>
+      </c>
+      <c r="P25">
+        <v>0.002255635977132776</v>
+      </c>
+      <c r="Q25">
+        <v>12.535602548607</v>
+      </c>
+      <c r="R25">
+        <v>75.213615291642</v>
+      </c>
+      <c r="S25">
+        <v>6.345735106622434E-05</v>
+      </c>
+      <c r="T25">
+        <v>4.839799743305086E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>78.9922905</v>
+      </c>
+      <c r="H26">
+        <v>157.984581</v>
+      </c>
+      <c r="I26">
+        <v>0.03184309255652677</v>
+      </c>
+      <c r="J26">
+        <v>0.02145647521306668</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>27.8360895</v>
+      </c>
+      <c r="N26">
+        <v>55.672179</v>
+      </c>
+      <c r="O26">
+        <v>0.3495541134706443</v>
+      </c>
+      <c r="P26">
+        <v>0.263770043559252</v>
+      </c>
+      <c r="Q26">
+        <v>2198.836468168</v>
+      </c>
+      <c r="R26">
+        <v>8795.345872671998</v>
+      </c>
+      <c r="S26">
+        <v>0.01113088398876039</v>
+      </c>
+      <c r="T26">
+        <v>0.005659575401578612</v>
       </c>
     </row>
   </sheetData>
